--- a/test/rates_1756196539171.xlsx
+++ b/test/rates_1756196539171.xlsx
@@ -2365,6 +2365,23 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
